--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Python\discordbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cse\Desktop\discordbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705B6EC8-7548-454C-817C-C51C9C5A937C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="13605" windowWidth="30930" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14820" windowHeight="10740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="timeTable" sheetId="1" r:id="rId1"/>
@@ -164,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,11 +486,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,15 +620,14 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -770,11 +768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -815,7 +813,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>20</v>
